--- a/public/excel/format_excel_peserta didik.xlsx
+++ b/public/excel/format_excel_peserta didik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eRaporSMK\dataweb\storage\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EEC1DA-DA86-47BE-8E03-8B4DE9A63930}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC3B7C5-A0B1-441B-8C7B-CE23EDE01A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" xr2:uid="{145C0726-736B-4A55-AB85-CFFE624BF3D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{145C0726-736B-4A55-AB85-CFFE624BF3D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>No.</t>
   </si>
@@ -41,12 +43,6 @@
     <t>Nama</t>
   </si>
   <si>
-    <t>NUPTK</t>
-  </si>
-  <si>
-    <t>NIP</t>
-  </si>
-  <si>
     <t>NIK</t>
   </si>
   <si>
@@ -62,28 +58,16 @@
     <t>Agama</t>
   </si>
   <si>
-    <t>Alamat Jalan</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>RW</t>
-  </si>
-  <si>
-    <t>Desa/Kelurahan</t>
-  </si>
-  <si>
-    <t>Kecamatan</t>
-  </si>
-  <si>
-    <t>Kodepos</t>
-  </si>
-  <si>
-    <t>Telp/HP</t>
-  </si>
-  <si>
-    <t>Email</t>
+    <t>NISN</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Anak Ke</t>
+  </si>
+  <si>
+    <t>Nis</t>
   </si>
 </sst>
 </file>
@@ -437,33 +421,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6896F2-9802-4CC3-9566-F5F316769AA6}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,60 +449,75 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H12"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{C51D5A43-9758-4BF5-A560-3EAE0CAF259B}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F13:F1048576" xr:uid="{C51D5A43-9758-4BF5-A560-3EAE0CAF259B}">
       <formula1>"L,P"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{DC517AEB-014D-4309-B2F4-28916DC3E811}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I1048576" xr:uid="{DC517AEB-014D-4309-B2F4-28916DC3E811}">
       <formula1>"Islam,Kristen,Katholik,Hindu,Budha,Kong Hu Chu,Kepercayaan kpd Tuhan YME"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Format Tanggal Lahir" prompt="dd/mm/yyyy" sqref="H2:H1048576" xr:uid="{CCEE43A7-660C-4ED0-A974-B745B9ACBADB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Format Tanggal Lahir" prompt="dd/mm/yyyy" sqref="H13:H1048576" xr:uid="{CCEE43A7-660C-4ED0-A974-B745B9ACBADB}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
